--- a/Hibernate/resources/SistemasInformacionII.xlsx
+++ b/Hibernate/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{CC130B29-CA14-45D7-B350-210A9DB2B3A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:8100800_{CC130B29-CA14-45D7-B350-210A9DB2B3A2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="5895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="5895" windowWidth="13215" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
+    <sheet name="Hoja2" r:id="rId2" sheetId="4"/>
+    <sheet name="Hoja3" r:id="rId3" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:G18"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="810">
   <si>
     <t>Nombre</t>
   </si>
@@ -2144,12 +2144,322 @@
   </si>
   <si>
     <t>Sersusa00@tecnoleonsl.es</t>
+  </si>
+  <si>
+    <t>Mohah00@p2272621i.es</t>
+  </si>
+  <si>
+    <t>Mohahah00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Bonalal00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Demalca00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Geralba00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Maralga00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Isralro00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Gabalmo00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Rubalfu00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Alealli00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Alealli01@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Rocangi00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Solardi00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Vitba00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Vitbaba00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Adobabl00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Maubeap00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Agubeca00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Luibebe00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Armbiga00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Latbo00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Latbobo00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Saabo00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Antbuga00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Dorbugo00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Elacagu00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Marcaig00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Concaqu00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Marcave00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Fedcapo00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Ivacace00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Sercafu00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Eulcaja00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Goncaga00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Emicapu00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Melcasa00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Moncelo00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Jesceca00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Joscepo00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Berchca00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Nelchal00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Marchce00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Marcoca00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Migdeal00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Crudefl00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Cardilo00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Hugecal00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Khael00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Souel00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Brafepi00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Anafeal00@p2272621i.es</t>
+  </si>
+  <si>
+    <t>Ismfefr00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Diafife00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Elifima00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Confrlo00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Rosgaam00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Euggaal00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Laugapr00@p2272621i.es</t>
+  </si>
+  <si>
+    <t>Elegaga00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Lorgapa00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Diegafr00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Andgese00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Felgoib00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Casgoal00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Abegori00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Luigrpu00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Niegumo00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Julgulo00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Danhedo00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Roslado00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Ferllra00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Nicmaca00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Oscmabl00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Juamafe00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Jusmaga00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Hecmeot00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Carmigu00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Pilmova00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Clemoma00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Migmobe00@p2456841a.es</t>
+  </si>
+  <si>
+    <t>Blanubl00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Pedolsu00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Pauordi00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Julotfe00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Carpade00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Cecpega00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Vicpepe00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Clapral00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Anaprma00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Ramprga00@p2492876r.es</t>
+  </si>
+  <si>
+    <t>Inerifu00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Fraroal00@p2272621i.es</t>
+  </si>
+  <si>
+    <t>Frarodo00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Tomroga00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Clorola00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Crisabe00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Sarsaas00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Encsahe00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Dolsalo00@p2418823c.es</t>
+  </si>
+  <si>
+    <t>Hersafe00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Sonsego00@p2463928t.es</t>
+  </si>
+  <si>
+    <t>Gensosa00@p2472621i.es</t>
+  </si>
+  <si>
+    <t>Sersusa00@p2472621i.es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2177,23 +2487,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2219,10 +2529,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2241,10 +2551,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2279,7 +2589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2331,7 +2641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2436,7 +2746,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2445,13 +2755,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2461,7 +2771,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2470,7 +2780,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2479,7 +2789,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2489,12 +2799,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2525,7 +2835,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2544,7 +2854,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2556,26 +2866,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0" zoomScale="93" zoomScaleNormal="93">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" collapsed="1"/>
-    <col min="6" max="6" width="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="3" width="10.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="28.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="5" width="7.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6914,8 +7224,8 @@
   <sortState ref="A2:Q104">
     <sortCondition ref="B1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6925,20 +7235,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="93">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7684,12 +7994,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7698,6 +8008,6 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Hibernate/resources/SistemasInformacionII.xlsx
+++ b/Hibernate/resources/SistemasInformacionII.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="810">
   <si>
     <t>Nombre</t>
   </si>

--- a/Hibernate/resources/SistemasInformacionII.xlsx
+++ b/Hibernate/resources/SistemasInformacionII.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9927" uniqueCount="810">
   <si>
     <t>Nombre</t>
   </si>
